--- a/Kortright_CHEMSUMM.xlsx
+++ b/Kortright_CHEMSUMM.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F130A83E-35A6-420D-8ABA-513229A153CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEF643D-1F5E-4E3E-982A-2E8514F276BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPECHEMSUMM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,10 +33,30 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={6F7FD141-D115-4CA7-A1BB-1CF8844A9756}</author>
+    <author>tc={CEAD0E64-746B-40D8-925C-A6179EDF16DC}</author>
     <author>tc={B0BA303E-160A-4E82-B2D6-77E3049CEE19}</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{B0BA303E-160A-4E82-B2D6-77E3049CEE19}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{6F7FD141-D115-4CA7-A1BB-1CF8844A9756}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Paraiba, L. C., Bru, R. and Carrasco, J. M.: Level IV Fugacity model depending on temperature by a periodic control system, Ecol. Modell., 147(3), 221–232, doi:10.1016/S0304-3800(01)00421-5, 2002.
+Reply:
+    water viscosity = 1.0791, using Mcgowan's molar volume</t>
+      </text>
+    </comment>
+    <comment ref="AA2" authorId="1" shapeId="0" xr:uid="{CEAD0E64-746B-40D8-925C-A6179EDF16DC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Zhao, Y. H., Abraham, M. H. and Zissimos, A. M.: Determination of McGowan Volumes for Ions and Correlation with van der Waals Volumes, J. Chem. Inf. Comput. Sci., 43(6), 1848–1854, doi:10.1021/ci0341114, 2003.</t>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="2" shapeId="0" xr:uid="{B0BA303E-160A-4E82-B2D6-77E3049CEE19}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -162,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +335,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -659,7 +686,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -667,7 +694,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="44">
@@ -731,6 +757,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Tim Rodgers" id="{E469431D-55DE-4124-96F2-18CB6D6B3851}" userId="Tim Rodgers" providerId="None"/>
   <person displayName="Tim Rodgers" id="{0ADE794B-AEB9-4D0C-BA7E-136B51374934}" userId="403ae09839abb1f6" providerId="Windows Live"/>
 </personList>
 </file>
@@ -1032,6 +1059,15 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C1" dT="2020-11-09T15:48:14.35" personId="{E469431D-55DE-4124-96F2-18CB6D6B3851}" id="{6F7FD141-D115-4CA7-A1BB-1CF8844A9756}">
+    <text>Paraiba, L. C., Bru, R. and Carrasco, J. M.: Level IV Fugacity model depending on temperature by a periodic control system, Ecol. Modell., 147(3), 221–232, doi:10.1016/S0304-3800(01)00421-5, 2002.</text>
+  </threadedComment>
+  <threadedComment ref="C1" dT="2020-11-09T15:57:14.30" personId="{E469431D-55DE-4124-96F2-18CB6D6B3851}" id="{2A52EE81-425D-4C8F-99C3-BC3B53F4DF3A}" parentId="{6F7FD141-D115-4CA7-A1BB-1CF8844A9756}">
+    <text>water viscosity = 1.0791, using Mcgowan's molar volume</text>
+  </threadedComment>
+  <threadedComment ref="AA2" dT="2020-11-09T15:47:52.19" personId="{E469431D-55DE-4124-96F2-18CB6D6B3851}" id="{CEAD0E64-746B-40D8-925C-A6179EDF16DC}">
+    <text>Zhao, Y. H., Abraham, M. H. and Zissimos, A. M.: Determination of McGowan Volumes for Ions and Correlation with van der Waals Volumes, J. Chem. Inf. Comput. Sci., 43(6), 1848–1854, doi:10.1021/ci0341114, 2003.</text>
+  </threadedComment>
   <threadedComment ref="K3" dT="2019-11-26T16:47:38.43" personId="{0ADE794B-AEB9-4D0C-BA7E-136B51374934}" id="{B0BA303E-160A-4E82-B2D6-77E3049CEE19}">
     <text>=Log(71) from Rhodes-Dicker</text>
   </threadedComment>
@@ -1044,7 +1080,7 @@
   <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,7 +1198,8 @@
         <v>79.903999999999996</v>
       </c>
       <c r="C2" s="2">
-        <v>1E-99</v>
+        <f>(0.000000074*(2.6*B2)^0.5*(273.15+17)/(1.0791*(AA2*100)^0.6))*(3600/100^2)</f>
+        <v>1.3241059797519805E-5</v>
       </c>
       <c r="D2" s="2">
         <v>1E-99</v>
@@ -1230,7 +1267,8 @@
         <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>0</v>
+        <f>30.66/100</f>
+        <v>0.30659999999999998</v>
       </c>
       <c r="AB2" s="1"/>
     </row>
@@ -1241,10 +1279,11 @@
       <c r="B3" s="4">
         <v>119.127</v>
       </c>
-      <c r="C3" s="5">
-        <v>1.7820000000000003E-6</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C4" si="0">(0.000000074*(2.6*B3)^0.5*(273.15+17)/(1.0791*(AA3*100)^0.6))*(3600/100^2)</f>
+        <v>3.9141038199750839E-6</v>
+      </c>
+      <c r="D3" s="5">
         <v>1.2887999999999998E-2</v>
       </c>
       <c r="E3" s="2">
@@ -1324,10 +1363,11 @@
       <c r="B4">
         <v>566.99</v>
       </c>
-      <c r="C4" s="5">
-        <v>1.7820000000000003E-6</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>7.8946170041811414E-6</v>
+      </c>
+      <c r="D4" s="5">
         <v>1.2887999999999998E-2</v>
       </c>
       <c r="E4" s="2">
@@ -1438,7 +1478,6 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1467,7 +1506,6 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>

--- a/Kortright_CHEMSUMM.xlsx
+++ b/Kortright_CHEMSUMM.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEF643D-1F5E-4E3E-982A-2E8514F276BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807EEE38-F1FA-4D38-BD64-E4193D1B74FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPECHEMSUMM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
   <authors>
     <author>tc={6F7FD141-D115-4CA7-A1BB-1CF8844A9756}</author>
     <author>tc={CEAD0E64-746B-40D8-925C-A6179EDF16DC}</author>
-    <author>tc={B0BA303E-160A-4E82-B2D6-77E3049CEE19}</author>
+    <author>tc={214F0692-0C46-4740-893B-681F89C171A6}</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{6F7FD141-D115-4CA7-A1BB-1CF8844A9756}">
@@ -56,7 +55,7 @@
     Zhao, Y. H., Abraham, M. H. and Zissimos, A. M.: Determination of McGowan Volumes for Ions and Correlation with van der Waals Volumes, J. Chem. Inf. Comput. Sci., 43(6), 1848–1854, doi:10.1021/ci0341114, 2003.</t>
       </text>
     </comment>
-    <comment ref="K3" authorId="2" shapeId="0" xr:uid="{B0BA303E-160A-4E82-B2D6-77E3049CEE19}">
+    <comment ref="K3" authorId="2" shapeId="0" xr:uid="{214F0692-0C46-4740-893B-681F89C171A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Compound</t>
   </si>
@@ -174,6 +173,9 @@
   </si>
   <si>
     <t>CCN(CC)C1=CC2=C(C=C1)C(=C3C=CC(=[N+](CC)CC)C=C3O2)C4=C(C=C(C=C4)C(=O)[O-])C(=O)[O-].[Na+].[Na+].[Cl-]</t>
+  </si>
+  <si>
+    <t>95-14-7</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1070,7 @@
   <threadedComment ref="AA2" dT="2020-11-09T15:47:52.19" personId="{E469431D-55DE-4124-96F2-18CB6D6B3851}" id="{CEAD0E64-746B-40D8-925C-A6179EDF16DC}">
     <text>Zhao, Y. H., Abraham, M. H. and Zissimos, A. M.: Determination of McGowan Volumes for Ions and Correlation with van der Waals Volumes, J. Chem. Inf. Comput. Sci., 43(6), 1848–1854, doi:10.1021/ci0341114, 2003.</text>
   </threadedComment>
-  <threadedComment ref="K3" dT="2019-11-26T16:47:38.43" personId="{0ADE794B-AEB9-4D0C-BA7E-136B51374934}" id="{B0BA303E-160A-4E82-B2D6-77E3049CEE19}">
+  <threadedComment ref="K3" dT="2019-11-26T16:47:38.43" personId="{0ADE794B-AEB9-4D0C-BA7E-136B51374934}" id="{214F0692-0C46-4740-893B-681F89C171A6}">
     <text>=Log(71) from Rhodes-Dicker</text>
   </threadedComment>
 </ThreadedComments>
@@ -1079,8 +1081,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,8 +1282,8 @@
         <v>119.127</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C4" si="0">(0.000000074*(2.6*B3)^0.5*(273.15+17)/(1.0791*(AA3*100)^0.6))*(3600/100^2)</f>
-        <v>3.9141038199750839E-6</v>
+        <f t="shared" ref="C3" si="0">(0.000000074*(2.6*B3)^0.5*(273.15+17)/(1.0791*(AA3*100)^0.6))*(3600/100^2)</f>
+        <v>8.6819708262146042E-6</v>
       </c>
       <c r="D3" s="5">
         <v>1.2887999999999998E-2</v>
@@ -1300,7 +1302,7 @@
         <v>1.2300000000000002</v>
       </c>
       <c r="J3" s="1">
-        <v>-2.1145100000000006</v>
+        <v>-7.1020259999999986</v>
       </c>
       <c r="K3" s="1">
         <f>LOG(71)</f>
@@ -1338,22 +1340,25 @@
         <v>2.616143551903963E-10</v>
       </c>
       <c r="W3" s="1">
-        <v>5.0449999999999999</v>
+        <v>5.6689999999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>0.87</v>
+        <v>1.46</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="Z3" s="1">
-        <v>0.18</v>
+        <v>0.48</v>
       </c>
       <c r="AA3" s="1">
-        <v>3.2603</v>
+        <v>0.86419999999999997</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -1364,7 +1369,7 @@
         <v>566.99</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C3:C4" si="1">(0.000000074*(2.6*B4)^0.5*(273.15+17)/(1.0791*(AA4*100)^0.6))*(3600/100^2)</f>
         <v>7.8946170041811414E-6</v>
       </c>
       <c r="D4" s="5">
